--- a/examples/oucru/oucru-fl/resources/outputs/templates/ccfgs_fl_data_fixed.xlsx
+++ b/examples/oucru/oucru-fl/resources/outputs/templates/ccfgs_fl_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/main/examples/oucru/oucru-fl/resources/outputs/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-fl\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A6473A-91D7-114D-A5E4-8F02CDF76EDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470981FA-0A8F-42C9-B3F8-25B6E4169121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="35000" windowHeight="21940" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24015" yWindow="795" windowWidth="19575" windowHeight="16470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FL_CLINICAL_SUM" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,23 @@
     <sheet name="FL_DIAGNOSTIC" sheetId="10" r:id="rId10"/>
     <sheet name="FL_NOTES" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="602">
   <si>
     <t>from_name</t>
   </si>
@@ -675,10 +686,6 @@
 mesis</t>
   </si>
   <si>
-    <t>nose
-packing</t>
-  </si>
-  <si>
     <t>other
 inter-
 vention</t>
@@ -996,9 +1003,6 @@
     <t>{4: 'V_0', 3: 'V_1', 2: 'V_2', 9: 'V_3', 1: 'V_5'}</t>
   </si>
   <si>
-    <t>{4: 'V_0', 5: 'V_2', 6: 'V_3', 3: 'V_4', 7: 'V_5'}</t>
-  </si>
-  <si>
     <t>{2: 'V_1', 1: 'V_2'}</t>
   </si>
   <si>
@@ -1137,9 +1141,6 @@
     <t>alt</t>
   </si>
   <si>
-    <t>{3: 'V_0', 4: 'V_1', 2: 'V_2', 1: 'V_3', 9: 'V_4'}</t>
-  </si>
-  <si>
     <t>Pulse</t>
   </si>
   <si>
@@ -1342,9 +1343,6 @@
   </si>
   <si>
     <t>other_general</t>
-  </si>
-  <si>
-    <t>heart_desc</t>
   </si>
   <si>
     <t>rales_left</t>
@@ -1834,9 +1832,6 @@
     <t>bleeding_vaginal</t>
   </si>
   <si>
-    <t>bleeding_other</t>
-  </si>
-  <si>
     <t>bleeding_severity</t>
   </si>
   <si>
@@ -1969,9 +1964,6 @@
     <t>oedema_description</t>
   </si>
   <si>
-    <t>heart_sound</t>
-  </si>
-  <si>
     <t>pleural_effusion</t>
   </si>
   <si>
@@ -2006,6 +1998,70 @@
   </si>
   <si>
     <t>pcr_dengue_serotype</t>
+  </si>
+  <si>
+    <t>heart_sound_abnormal</t>
+  </si>
+  <si>
+    <t>heart_sound_abnormal_desc</t>
+  </si>
+  <si>
+    <t>{1: False, 2: True}</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>when 2 abnormality specified</t>
+  </si>
+  <si>
+    <t>echymosis</t>
+  </si>
+  <si>
+    <t>date_onset</t>
+  </si>
+  <si>
+    <t>study_day_col</t>
+  </si>
+  <si>
+    <t>study_day_ref</t>
+  </si>
+  <si>
+    <t>date_admission</t>
+  </si>
+  <si>
+    <t>event_onset</t>
+  </si>
+  <si>
+    <t>{1: True}</t>
+  </si>
+  <si>
+    <t>{' ': None, 1: True}</t>
+  </si>
+  <si>
+    <t>packing_nose</t>
+  </si>
+  <si>
+    <t>{4: 4, 5: 5, 6: 6, 3: 3, 7: 7}</t>
+  </si>
+  <si>
+    <t>date_shock</t>
+  </si>
+  <si>
+    <t>event_shock</t>
+  </si>
+  <si>
+    <t>-Dayill on
+enrolment</t>
+  </si>
+  <si>
+    <t>{2: False, 1: True, ' ': None}</t>
+  </si>
+  <si>
+    <t>{3: 3, 4: 4, 2: 2, 1: 1, 9: 9}</t>
+  </si>
+  <si>
+    <t>{1: True, 9: None, 0: False}</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2067,11 +2123,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2080,6 +2147,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2418,27 +2492,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2469,8 +2544,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2478,30 +2559,30 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2509,39 +2590,39 @@
         <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E5" t="s">
         <v>507</v>
       </c>
-      <c r="C5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" t="s">
-        <v>508</v>
-      </c>
-      <c r="E5" t="s">
-        <v>511</v>
-      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2549,19 +2630,19 @@
         <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2569,19 +2650,19 @@
         <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2589,30 +2670,30 @@
         <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2620,13 +2701,13 @@
         <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2634,13 +2715,13 @@
         <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2648,16 +2729,16 @@
         <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2665,16 +2746,16 @@
         <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2682,16 +2763,16 @@
         <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2699,16 +2780,16 @@
         <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2716,13 +2797,13 @@
         <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2730,13 +2811,13 @@
         <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2744,16 +2825,16 @@
         <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2761,13 +2842,13 @@
         <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2775,198 +2856,204 @@
         <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>527</v>
+      </c>
+      <c r="E21" t="s">
+        <v>587</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D22" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E22" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D24" t="s">
-        <v>532</v>
+        <v>527</v>
+      </c>
+      <c r="E24" t="s">
+        <v>587</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E25" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D26" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D27" t="s">
-        <v>532</v>
+        <v>527</v>
+      </c>
+      <c r="E27" t="s">
+        <v>587</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
-        <v>532</v>
-      </c>
-      <c r="E29" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D30" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E30" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2974,39 +3061,39 @@
         <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D31" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E31" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D32" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E32" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3014,136 +3101,139 @@
         <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D33" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E33" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D34" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E34" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D35" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E35" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D36" t="s">
-        <v>533</v>
+        <v>528</v>
+      </c>
+      <c r="E36" t="s">
+        <v>587</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D37" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E37" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D38" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E38" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D39" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E39" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -3151,16 +3241,16 @@
         <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D40" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -3168,36 +3258,36 @@
         <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D41" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D42" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E42" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -3205,19 +3295,19 @@
         <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D43" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E43" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3225,39 +3315,39 @@
         <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D44" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E44" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D45" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E45" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -3265,184 +3355,193 @@
         <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D46" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E46" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D47" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E47" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D48" t="s">
-        <v>532</v>
+        <v>527</v>
+      </c>
+      <c r="E48" t="s">
+        <v>587</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E49" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D50" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
-        <v>532</v>
+        <v>527</v>
+      </c>
+      <c r="E51" t="s">
+        <v>587</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D52" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E52" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D53" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D54" t="s">
-        <v>532</v>
+        <v>527</v>
+      </c>
+      <c r="E54" t="s">
+        <v>587</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E55" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3450,589 +3549,604 @@
         <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D56" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>532</v>
+        <v>527</v>
+      </c>
+      <c r="E57" t="s">
+        <v>587</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D58" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E58" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D59" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>68</v>
       </c>
       <c r="B60" t="s">
+        <v>523</v>
+      </c>
+      <c r="C60" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" t="s">
         <v>527</v>
       </c>
-      <c r="C60" t="s">
-        <v>230</v>
-      </c>
-      <c r="D60" t="s">
-        <v>532</v>
-      </c>
       <c r="E60" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D61" t="s">
-        <v>532</v>
+        <v>527</v>
+      </c>
+      <c r="E61" t="s">
+        <v>587</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D62" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E62" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D63" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D64" t="s">
-        <v>534</v>
+        <v>529</v>
+      </c>
+      <c r="E64" t="s">
+        <v>587</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E65" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>529</v>
+        <v>376</v>
       </c>
       <c r="C67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D67" t="s">
-        <v>245</v>
+        <v>592</v>
+      </c>
+      <c r="E67" t="s">
+        <v>507</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>594</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D68" t="s">
-        <v>248</v>
+        <v>593</v>
+      </c>
+      <c r="E68" t="s">
+        <v>507</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E80" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E81" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E82" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D83" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D84" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E84" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D85" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D89" t="s">
-        <v>254</v>
+        <v>595</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -4040,755 +4154,837 @@
         <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D90" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D91" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D93" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E93" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D94" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D100" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C103" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C104" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E105" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C106" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E107" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D109" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E109" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C110" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D110" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E110" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C112" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D112" t="s">
-        <v>242</v>
+        <v>599</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D115" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E116" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C117" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C118" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C119" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D119" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C120" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C121" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D121" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C122" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D122" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C123" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D123" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C124" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D124" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D125" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C126" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D126" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C127" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D127" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C128" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C129" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D129" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C130" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D130" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C131" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C132" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D132" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C133" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K133" s="5"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C134" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K134" s="5"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C135" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
+      <c r="K135" s="5"/>
+    </row>
+    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>587</v>
+      </c>
+      <c r="B136" t="s">
+        <v>587</v>
+      </c>
+      <c r="C136" t="s">
+        <v>233</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>591</v>
+      </c>
+      <c r="K136" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="L136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>590</v>
+      </c>
+      <c r="B137" t="s">
+        <v>590</v>
+      </c>
+      <c r="C137" t="s">
+        <v>233</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="s">
+        <v>579</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L137" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>596</v>
+      </c>
+      <c r="B138" t="s">
+        <v>596</v>
+      </c>
+      <c r="C138" t="s">
+        <v>233</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>597</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L138" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K139" s="5"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K143" s="5"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K144" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4798,12 +4994,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4835,238 +5031,238 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" t="s">
         <v>230</v>
       </c>
-      <c r="D2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
+        <v>432</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" t="s">
         <v>231</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" t="s">
+        <v>501</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>489</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B12" t="s">
         <v>497</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C12" t="s">
         <v>231</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>422</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B13" t="s">
         <v>430</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B14" t="s">
+        <v>498</v>
+      </c>
+      <c r="C14" t="s">
         <v>230</v>
       </c>
-      <c r="D6" t="s">
-        <v>435</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B7" t="s">
-        <v>431</v>
-      </c>
-      <c r="C7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>424</v>
-      </c>
-      <c r="B8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" t="s">
-        <v>436</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>490</v>
-      </c>
-      <c r="B9" t="s">
-        <v>498</v>
-      </c>
-      <c r="C9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>491</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B15" t="s">
         <v>499</v>
       </c>
-      <c r="C10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>492</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
         <v>500</v>
       </c>
-      <c r="C11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" t="s">
-        <v>505</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>493</v>
-      </c>
-      <c r="B12" t="s">
-        <v>501</v>
-      </c>
-      <c r="C12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>426</v>
-      </c>
-      <c r="B13" t="s">
-        <v>434</v>
-      </c>
-      <c r="C13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>494</v>
-      </c>
-      <c r="B14" t="s">
-        <v>502</v>
-      </c>
-      <c r="C14" t="s">
-        <v>231</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>495</v>
-      </c>
-      <c r="B15" t="s">
-        <v>503</v>
-      </c>
-      <c r="C15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>496</v>
-      </c>
-      <c r="B16" t="s">
-        <v>504</v>
-      </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -5074,13 +5270,13 @@
         <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5088,7 +5284,7 @@
         <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -5105,9 +5301,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5139,15 +5335,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5164,9 +5360,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5198,18 +5394,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5225,24 +5421,24 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5274,416 +5470,416 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>269</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>290</v>
       </c>
-      <c r="C2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" t="s">
-        <v>292</v>
-      </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>601</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>600</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" t="s">
+        <v>531</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>276</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" t="s">
+        <v>531</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" t="s">
+        <v>534</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" t="s">
+        <v>531</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" t="s">
+        <v>531</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" t="s">
+        <v>535</v>
+      </c>
+      <c r="C16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" t="s">
+        <v>531</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" t="s">
+        <v>536</v>
+      </c>
+      <c r="C17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" t="s">
+        <v>531</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" t="s">
+        <v>537</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" t="s">
+        <v>531</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" t="s">
         <v>296</v>
       </c>
-      <c r="C11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" t="s">
-        <v>537</v>
-      </c>
-      <c r="C12" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" t="s">
-        <v>536</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B13" t="s">
-        <v>537</v>
-      </c>
-      <c r="C13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E13" t="s">
-        <v>536</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" t="s">
+        <v>531</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>539</v>
       </c>
-      <c r="C14" t="s">
-        <v>235</v>
-      </c>
-      <c r="E14" t="s">
-        <v>536</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" t="s">
+        <v>540</v>
+      </c>
+      <c r="C20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" t="s">
+        <v>531</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" t="s">
+        <v>541</v>
+      </c>
+      <c r="C21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" t="s">
+        <v>531</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" t="s">
         <v>297</v>
       </c>
-      <c r="C15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" t="s">
-        <v>536</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B16" t="s">
-        <v>540</v>
-      </c>
-      <c r="C16" t="s">
-        <v>235</v>
-      </c>
-      <c r="E16" t="s">
-        <v>536</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>282</v>
-      </c>
-      <c r="B17" t="s">
-        <v>541</v>
-      </c>
-      <c r="C17" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" t="s">
-        <v>536</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>283</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" t="s">
+        <v>531</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
         <v>542</v>
       </c>
-      <c r="C18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" t="s">
-        <v>536</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" t="s">
+        <v>531</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B24" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>284</v>
-      </c>
-      <c r="B19" t="s">
-        <v>298</v>
-      </c>
-      <c r="C19" t="s">
-        <v>235</v>
-      </c>
-      <c r="E19" t="s">
-        <v>536</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>285</v>
-      </c>
-      <c r="B20" t="s">
-        <v>545</v>
-      </c>
-      <c r="C20" t="s">
-        <v>235</v>
-      </c>
-      <c r="E20" t="s">
-        <v>536</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B21" t="s">
-        <v>546</v>
-      </c>
-      <c r="C21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" t="s">
-        <v>536</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>287</v>
-      </c>
-      <c r="B22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22" t="s">
-        <v>235</v>
-      </c>
-      <c r="E22" t="s">
-        <v>536</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23" t="s">
-        <v>300</v>
-      </c>
-      <c r="C23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" t="s">
-        <v>536</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>289</v>
-      </c>
-      <c r="B24" t="s">
-        <v>548</v>
-      </c>
       <c r="C24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E24" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -5693,27 +5889,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5744,186 +5940,189 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" t="s">
         <v>230</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
         <v>236</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" t="s">
         <v>231</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" t="s">
-        <v>511</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" t="s">
         <v>230</v>
       </c>
-      <c r="D5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" t="s">
         <v>362</v>
       </c>
-      <c r="C8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" t="s">
-        <v>569</v>
-      </c>
-      <c r="C10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" t="s">
-        <v>511</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B12" t="s">
-        <v>365</v>
-      </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5931,19 +6130,19 @@
         <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E13" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -5951,107 +6150,107 @@
         <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" t="s">
+        <v>516</v>
+      </c>
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" t="s">
+        <v>545</v>
+      </c>
+      <c r="E15" t="s">
+        <v>507</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" t="s">
+        <v>567</v>
+      </c>
+      <c r="C17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" t="s">
+        <v>545</v>
+      </c>
+      <c r="E17" t="s">
+        <v>507</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>311</v>
       </c>
-      <c r="B15" t="s">
-        <v>520</v>
-      </c>
-      <c r="C15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" t="s">
-        <v>550</v>
-      </c>
-      <c r="E15" t="s">
-        <v>511</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>312</v>
-      </c>
-      <c r="B16" t="s">
-        <v>571</v>
-      </c>
-      <c r="C16" t="s">
-        <v>233</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>313</v>
-      </c>
-      <c r="B17" t="s">
-        <v>572</v>
-      </c>
-      <c r="C17" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" t="s">
-        <v>550</v>
-      </c>
-      <c r="E17" t="s">
-        <v>511</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>314</v>
-      </c>
       <c r="B18" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E19" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -6059,99 +6258,99 @@
         <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E20" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" t="s">
+        <v>586</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" t="s">
+        <v>545</v>
+      </c>
+      <c r="E21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" t="s">
+        <v>520</v>
+      </c>
+      <c r="C22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" t="s">
+        <v>545</v>
+      </c>
+      <c r="E22" t="s">
+        <v>507</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" t="s">
+        <v>545</v>
+      </c>
+      <c r="E23" t="s">
+        <v>507</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>315</v>
       </c>
-      <c r="B21" t="s">
-        <v>581</v>
-      </c>
-      <c r="C21" t="s">
-        <v>230</v>
-      </c>
-      <c r="D21" t="s">
-        <v>550</v>
-      </c>
-      <c r="E21" t="s">
-        <v>511</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" t="s">
-        <v>524</v>
-      </c>
-      <c r="C22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" t="s">
-        <v>550</v>
-      </c>
-      <c r="E22" t="s">
-        <v>511</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>317</v>
-      </c>
-      <c r="B23" t="s">
-        <v>366</v>
-      </c>
-      <c r="C23" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" t="s">
-        <v>550</v>
-      </c>
-      <c r="E23" t="s">
-        <v>511</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>318</v>
-      </c>
       <c r="B24" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D24" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E24" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -6159,19 +6358,19 @@
         <v>166</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E25" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -6179,689 +6378,692 @@
         <v>167</v>
       </c>
       <c r="C26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" t="s">
+        <v>545</v>
+      </c>
+      <c r="E26" t="s">
+        <v>507</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" t="s">
+        <v>521</v>
+      </c>
+      <c r="C27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" t="s">
+        <v>545</v>
+      </c>
+      <c r="E27" t="s">
+        <v>507</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" t="s">
+        <v>545</v>
+      </c>
+      <c r="E28" t="s">
+        <v>507</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B29" t="s">
+        <v>524</v>
+      </c>
+      <c r="C29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" t="s">
+        <v>545</v>
+      </c>
+      <c r="E29" t="s">
+        <v>507</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" t="s">
+        <v>581</v>
+      </c>
+      <c r="C31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" t="s">
+        <v>583</v>
+      </c>
+      <c r="E31" t="s">
+        <v>507</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32" t="s">
+        <v>582</v>
+      </c>
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>322</v>
+      </c>
+      <c r="B33" t="s">
+        <v>569</v>
+      </c>
+      <c r="C33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" t="s">
+        <v>545</v>
+      </c>
+      <c r="E33" t="s">
+        <v>507</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" t="s">
+        <v>576</v>
+      </c>
+      <c r="C34" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" t="s">
+        <v>393</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" t="s">
+        <v>392</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>325</v>
+      </c>
+      <c r="B36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" t="s">
+        <v>394</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" t="s">
+        <v>574</v>
+      </c>
+      <c r="C38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" t="s">
+        <v>507</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E39" t="s">
+        <v>507</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" t="s">
+        <v>370</v>
+      </c>
+      <c r="C40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>330</v>
+      </c>
+      <c r="B41" t="s">
+        <v>570</v>
+      </c>
+      <c r="C41" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" t="s">
+        <v>507</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>331</v>
+      </c>
+      <c r="B42" t="s">
+        <v>571</v>
+      </c>
+      <c r="C42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" t="s">
+        <v>395</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>332</v>
+      </c>
+      <c r="B43" t="s">
+        <v>572</v>
+      </c>
+      <c r="C43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>333</v>
+      </c>
+      <c r="B44" t="s">
+        <v>573</v>
+      </c>
+      <c r="C44" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>334</v>
+      </c>
+      <c r="B45" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" t="s">
+        <v>232</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>335</v>
+      </c>
+      <c r="B46" t="s">
+        <v>372</v>
+      </c>
+      <c r="C46" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>336</v>
+      </c>
+      <c r="B47" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>337</v>
+      </c>
+      <c r="B48" t="s">
+        <v>374</v>
+      </c>
+      <c r="C48" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50" t="s">
+        <v>376</v>
+      </c>
+      <c r="C50" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" t="s">
+        <v>396</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>340</v>
+      </c>
+      <c r="B51" t="s">
+        <v>377</v>
+      </c>
+      <c r="C51" t="s">
+        <v>229</v>
+      </c>
+      <c r="D51" t="s">
+        <v>397</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>341</v>
+      </c>
+      <c r="B52" t="s">
+        <v>378</v>
+      </c>
+      <c r="C52" t="s">
         <v>230</v>
       </c>
-      <c r="D26" t="s">
-        <v>550</v>
-      </c>
-      <c r="E26" t="s">
-        <v>511</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>319</v>
-      </c>
-      <c r="B27" t="s">
-        <v>525</v>
-      </c>
-      <c r="C27" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" t="s">
-        <v>550</v>
-      </c>
-      <c r="E27" t="s">
-        <v>511</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>320</v>
-      </c>
-      <c r="B28" t="s">
-        <v>368</v>
-      </c>
-      <c r="C28" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" t="s">
-        <v>550</v>
-      </c>
-      <c r="E28" t="s">
-        <v>511</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>321</v>
-      </c>
-      <c r="B29" t="s">
-        <v>528</v>
-      </c>
-      <c r="C29" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" t="s">
-        <v>550</v>
-      </c>
-      <c r="E29" t="s">
-        <v>511</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>322</v>
-      </c>
-      <c r="B30" t="s">
-        <v>369</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>342</v>
+      </c>
+      <c r="B53" t="s">
+        <v>379</v>
+      </c>
+      <c r="C53" t="s">
         <v>233</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>323</v>
-      </c>
-      <c r="B31" t="s">
-        <v>574</v>
-      </c>
-      <c r="C31" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" t="s">
-        <v>550</v>
-      </c>
-      <c r="E31" t="s">
-        <v>511</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>324</v>
-      </c>
-      <c r="B32" t="s">
-        <v>370</v>
-      </c>
-      <c r="C32" t="s">
-        <v>233</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>325</v>
-      </c>
-      <c r="B33" t="s">
-        <v>575</v>
-      </c>
-      <c r="C33" t="s">
-        <v>230</v>
-      </c>
-      <c r="D33" t="s">
-        <v>550</v>
-      </c>
-      <c r="E33" t="s">
-        <v>511</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>326</v>
-      </c>
-      <c r="B34" t="s">
-        <v>582</v>
-      </c>
-      <c r="C34" t="s">
-        <v>230</v>
-      </c>
-      <c r="D34" t="s">
-        <v>397</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>327</v>
-      </c>
-      <c r="B35" t="s">
-        <v>371</v>
-      </c>
-      <c r="C35" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" t="s">
-        <v>396</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>328</v>
-      </c>
-      <c r="B36" t="s">
-        <v>372</v>
-      </c>
-      <c r="C36" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" t="s">
-        <v>239</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>329</v>
-      </c>
-      <c r="B37" t="s">
-        <v>373</v>
-      </c>
-      <c r="C37" t="s">
-        <v>230</v>
-      </c>
-      <c r="D37" t="s">
-        <v>398</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>330</v>
-      </c>
-      <c r="B38" t="s">
-        <v>580</v>
-      </c>
-      <c r="C38" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" t="s">
-        <v>239</v>
-      </c>
-      <c r="E38" t="s">
-        <v>511</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>331</v>
-      </c>
-      <c r="B39" t="s">
-        <v>181</v>
-      </c>
-      <c r="C39" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="E39" t="s">
-        <v>511</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>332</v>
-      </c>
-      <c r="B40" t="s">
-        <v>374</v>
-      </c>
-      <c r="C40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D40" t="s">
-        <v>257</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>333</v>
-      </c>
-      <c r="B41" t="s">
-        <v>576</v>
-      </c>
-      <c r="C41" t="s">
-        <v>235</v>
-      </c>
-      <c r="E41" t="s">
-        <v>511</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>334</v>
-      </c>
-      <c r="B42" t="s">
-        <v>577</v>
-      </c>
-      <c r="C42" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" t="s">
-        <v>399</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>335</v>
-      </c>
-      <c r="B43" t="s">
-        <v>578</v>
-      </c>
-      <c r="C43" t="s">
-        <v>230</v>
-      </c>
-      <c r="D43" t="s">
-        <v>256</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>336</v>
-      </c>
-      <c r="B44" t="s">
-        <v>579</v>
-      </c>
-      <c r="C44" t="s">
-        <v>233</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>337</v>
-      </c>
-      <c r="B45" t="s">
-        <v>375</v>
-      </c>
-      <c r="C45" t="s">
-        <v>233</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>338</v>
-      </c>
-      <c r="B46" t="s">
-        <v>376</v>
-      </c>
-      <c r="C46" t="s">
-        <v>233</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>339</v>
-      </c>
-      <c r="B47" t="s">
-        <v>377</v>
-      </c>
-      <c r="C47" t="s">
-        <v>233</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>340</v>
-      </c>
-      <c r="B48" t="s">
-        <v>378</v>
-      </c>
-      <c r="C48" t="s">
-        <v>230</v>
-      </c>
-      <c r="D48" t="s">
-        <v>237</v>
-      </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>341</v>
-      </c>
-      <c r="B49" t="s">
-        <v>379</v>
-      </c>
-      <c r="C49" t="s">
-        <v>233</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>342</v>
-      </c>
-      <c r="B50" t="s">
-        <v>380</v>
-      </c>
-      <c r="C50" t="s">
-        <v>230</v>
-      </c>
-      <c r="D50" t="s">
-        <v>400</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>343</v>
-      </c>
-      <c r="B51" t="s">
-        <v>381</v>
-      </c>
-      <c r="C51" t="s">
-        <v>230</v>
-      </c>
-      <c r="D51" t="s">
-        <v>401</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>344</v>
-      </c>
-      <c r="B52" t="s">
-        <v>382</v>
-      </c>
-      <c r="C52" t="s">
-        <v>231</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>345</v>
-      </c>
-      <c r="B53" t="s">
-        <v>383</v>
-      </c>
-      <c r="C53" t="s">
-        <v>234</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B54" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B55" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>345</v>
+      </c>
+      <c r="B56" t="s">
+        <v>382</v>
+      </c>
+      <c r="C56" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" t="s">
+        <v>398</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>346</v>
+      </c>
+      <c r="B57" t="s">
+        <v>383</v>
+      </c>
+      <c r="C57" t="s">
+        <v>232</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>347</v>
+      </c>
+      <c r="B58" t="s">
+        <v>384</v>
+      </c>
+      <c r="C58" t="s">
+        <v>232</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>348</v>
       </c>
-      <c r="B56" t="s">
-        <v>386</v>
-      </c>
-      <c r="C56" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" t="s">
-        <v>402</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>349</v>
-      </c>
-      <c r="B57" t="s">
-        <v>387</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B59" t="s">
+        <v>385</v>
+      </c>
+      <c r="C59" t="s">
         <v>233</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>350</v>
-      </c>
-      <c r="B58" t="s">
-        <v>388</v>
-      </c>
-      <c r="C58" t="s">
-        <v>233</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>351</v>
-      </c>
-      <c r="B59" t="s">
-        <v>389</v>
-      </c>
-      <c r="C59" t="s">
-        <v>234</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B60" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D60" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B61" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D61" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B62" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B63" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D63" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B64" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E65" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B66" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -6880,19 +7082,19 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6924,162 +7126,162 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" t="s">
         <v>233</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>409</v>
-      </c>
-      <c r="B4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C5" t="s">
-        <v>234</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" t="s">
         <v>413</v>
       </c>
-      <c r="B8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" t="s">
-        <v>403</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B11" t="s">
         <v>414</v>
       </c>
-      <c r="B9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" t="s">
-        <v>403</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" t="s">
-        <v>403</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B11" t="s">
-        <v>418</v>
-      </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7098,21 +7300,21 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7144,174 +7346,174 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" t="s">
         <v>230</v>
       </c>
-      <c r="D2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" t="s">
-        <v>231</v>
-      </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>556</v>
+      </c>
+      <c r="E7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>420</v>
       </c>
-      <c r="B5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>556</v>
+      </c>
+      <c r="E9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>421</v>
       </c>
-      <c r="B6" t="s">
-        <v>557</v>
-      </c>
-      <c r="C6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" t="s">
-        <v>427</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>422</v>
       </c>
-      <c r="B7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" t="s">
-        <v>561</v>
-      </c>
-      <c r="E7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B8" t="s">
-        <v>558</v>
-      </c>
-      <c r="C8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E8" t="s">
-        <v>427</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>424</v>
-      </c>
-      <c r="B9" t="s">
-        <v>560</v>
-      </c>
-      <c r="C9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E9" t="s">
-        <v>427</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B10" t="s">
-        <v>433</v>
-      </c>
-      <c r="C10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" t="s">
-        <v>403</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>426</v>
-      </c>
       <c r="B11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7328,13 +7530,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7366,162 +7568,162 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" t="s">
         <v>233</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B5" t="s">
-        <v>448</v>
-      </c>
-      <c r="C5" t="s">
-        <v>234</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>440</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" t="s">
         <v>449</v>
       </c>
-      <c r="C6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" t="s">
-        <v>403</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>442</v>
-      </c>
-      <c r="B8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" t="s">
-        <v>403</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>443</v>
-      </c>
-      <c r="B9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" t="s">
-        <v>454</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>444</v>
-      </c>
-      <c r="B10" t="s">
-        <v>452</v>
-      </c>
-      <c r="C10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" t="s">
-        <v>403</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B11" t="s">
-        <v>453</v>
-      </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7536,25 +7738,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7586,377 +7788,377 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>455</v>
       </c>
-      <c r="B2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" t="s">
         <v>233</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C7" t="s">
-        <v>234</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" t="s">
+        <v>475</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" t="s">
+        <v>557</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" t="s">
+        <v>475</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>460</v>
       </c>
-      <c r="B8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>461</v>
+      </c>
+      <c r="B13" t="s">
+        <v>558</v>
+      </c>
+      <c r="C13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" t="s">
+        <v>475</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" t="s">
+        <v>475</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B16" t="s">
+        <v>558</v>
+      </c>
+      <c r="C16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" t="s">
+        <v>475</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>466</v>
+      </c>
+      <c r="B18" t="s">
+        <v>479</v>
+      </c>
+      <c r="C18" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" t="s">
+        <v>558</v>
+      </c>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" t="s">
+        <v>475</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>468</v>
+      </c>
+      <c r="B20" t="s">
+        <v>557</v>
+      </c>
+      <c r="C20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" t="s">
+        <v>475</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21" t="s">
+        <v>580</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>470</v>
+      </c>
+      <c r="B22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" t="s">
+        <v>399</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" t="s">
+        <v>406</v>
+      </c>
+      <c r="C23" t="s">
         <v>233</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>461</v>
-      </c>
-      <c r="B9" t="s">
-        <v>480</v>
-      </c>
-      <c r="C9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>462</v>
-      </c>
-      <c r="B10" t="s">
-        <v>563</v>
-      </c>
-      <c r="C10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" t="s">
-        <v>479</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" t="s">
-        <v>479</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>464</v>
-      </c>
-      <c r="B12" t="s">
-        <v>481</v>
-      </c>
-      <c r="C12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>465</v>
-      </c>
-      <c r="B13" t="s">
-        <v>563</v>
-      </c>
-      <c r="C13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E13" t="s">
-        <v>479</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>466</v>
-      </c>
-      <c r="B14" t="s">
-        <v>562</v>
-      </c>
-      <c r="C14" t="s">
-        <v>235</v>
-      </c>
-      <c r="E14" t="s">
-        <v>479</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>467</v>
-      </c>
-      <c r="B15" t="s">
-        <v>482</v>
-      </c>
-      <c r="C15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>468</v>
-      </c>
-      <c r="B16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C16" t="s">
-        <v>235</v>
-      </c>
-      <c r="E16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>469</v>
-      </c>
-      <c r="B17" t="s">
-        <v>562</v>
-      </c>
-      <c r="C17" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" t="s">
-        <v>479</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>470</v>
-      </c>
-      <c r="B18" t="s">
-        <v>483</v>
-      </c>
-      <c r="C18" t="s">
-        <v>230</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>471</v>
-      </c>
-      <c r="B19" t="s">
-        <v>563</v>
-      </c>
-      <c r="C19" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" t="s">
-        <v>479</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>472</v>
-      </c>
-      <c r="B20" t="s">
-        <v>562</v>
-      </c>
-      <c r="C20" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" t="s">
-        <v>479</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>473</v>
-      </c>
-      <c r="B21" t="s">
-        <v>586</v>
-      </c>
-      <c r="C21" t="s">
-        <v>230</v>
-      </c>
-      <c r="D21" t="s">
-        <v>565</v>
-      </c>
-      <c r="E21" t="s">
-        <v>479</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>474</v>
-      </c>
-      <c r="B22" t="s">
-        <v>484</v>
-      </c>
-      <c r="C22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" t="s">
-        <v>403</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>410</v>
-      </c>
-      <c r="B23" t="s">
-        <v>410</v>
-      </c>
-      <c r="C23" t="s">
-        <v>234</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B24" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -7973,9 +8175,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8007,46 +8209,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-fl/resources/outputs/templates/ccfgs_fl_data_fixed.xlsx
+++ b/examples/oucru/oucru-fl/resources/outputs/templates/ccfgs_fl_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-fl\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470981FA-0A8F-42C9-B3F8-25B6E4169121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6384AE-9C8C-4FD4-9CCA-4D17863CE318}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24015" yWindow="795" windowWidth="19575" windowHeight="16470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27285" yWindow="885" windowWidth="25470" windowHeight="14850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FL_CLINICAL_SUM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="600">
   <si>
     <t>from_name</t>
   </si>
@@ -620,13 +620,6 @@
     <t>enrolment day</t>
   </si>
   <si>
-    <t>dayill on admission</t>
-  </si>
-  <si>
-    <t>dayill on
-enrolment</t>
-  </si>
-  <si>
     <t>ward</t>
   </si>
   <si>
@@ -1117,18 +1110,6 @@
     <t>dengue diagnosis</t>
   </si>
   <si>
-    <t>doi at shock</t>
-  </si>
-  <si>
-    <t>enrolment date</t>
-  </si>
-  <si>
-    <t>doi on enrolment</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>wbc</t>
   </si>
   <si>
@@ -1315,12 +1296,6 @@
     <t>pulse_status</t>
   </si>
   <si>
-    <t>bpup</t>
-  </si>
-  <si>
-    <t>bpdown</t>
-  </si>
-  <si>
     <t>extremities</t>
   </si>
   <si>
@@ -1420,19 +1395,7 @@
     <t>clinical diagnosis</t>
   </si>
   <si>
-    <t>{2: 'V_0', 1: 'V_2'}</t>
-  </si>
-  <si>
-    <t>{3: 'V_0', 2: 'V_2'}</t>
-  </si>
-  <si>
     <t>{'AM RAI RAC': 'V_1', 'RAN AM': 'V_2'}</t>
-  </si>
-  <si>
-    <t>{0: 'V_0'}</t>
-  </si>
-  <si>
-    <t>{4: 'V_0', 5: 'V_1', 3: 'V_2', 2: 'V_3'}</t>
   </si>
   <si>
     <t>{3: 'V_0', 2: 'V_2', 1: 'V_3'}</t>
@@ -2015,9 +1978,6 @@
     <t>when 2 abnormality specified</t>
   </si>
   <si>
-    <t>echymosis</t>
-  </si>
-  <si>
     <t>date_onset</t>
   </si>
   <si>
@@ -2062,6 +2022,39 @@
   </si>
   <si>
     <t>{1: True, 9: None, 0: False}</t>
+  </si>
+  <si>
+    <t>{2: False, 1: True}</t>
+  </si>
+  <si>
+    <t>{1: 1, 2: 2}</t>
+  </si>
+  <si>
+    <t>blood_pressure_up</t>
+  </si>
+  <si>
+    <t>blood_pressure_down</t>
+  </si>
+  <si>
+    <t>{3: 3, 2: 2}</t>
+  </si>
+  <si>
+    <t>{0: 0}</t>
+  </si>
+  <si>
+    <t>inverted!</t>
+  </si>
+  <si>
+    <t>{4: 'Severe', 5: 'Not in categories', 3: 'Mucosal', 2: 'Skin'}</t>
+  </si>
+  <si>
+    <t>bleeding_weird</t>
+  </si>
+  <si>
+    <t>day_from_illness</t>
+  </si>
+  <si>
+    <t>-DOI on enrolment</t>
   </si>
 </sst>
 </file>
@@ -2092,12 +2085,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -2138,7 +2137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2154,6 +2153,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2494,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,10 +2545,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2559,10 +2559,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -2573,10 +2573,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -2590,16 +2590,16 @@
         <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2607,16 +2607,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="E5" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2650,16 +2650,16 @@
         <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2670,7 +2670,7 @@
         <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2698,10 +2698,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>598</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -2712,10 +2712,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>598</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="E11" t="s">
+        <v>495</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2726,13 +2729,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -2743,13 +2746,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2760,13 +2763,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -2777,13 +2780,13 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2794,10 +2797,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2808,10 +2811,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2822,13 +2825,13 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2839,10 +2842,10 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2853,10 +2856,10 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2867,16 +2870,16 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E21" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2887,16 +2890,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E22" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2907,13 +2910,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2924,16 +2927,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E24" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -2944,16 +2947,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E25" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2964,13 +2967,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -2981,16 +2984,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E27" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -3001,16 +3004,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E28" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -3021,13 +3024,13 @@
         <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D29" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -3038,16 +3041,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D30" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E30" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -3058,16 +3061,16 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D31" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E31" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -3078,16 +3081,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D32" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E32" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -3098,16 +3101,16 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D33" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E33" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -3118,16 +3121,16 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
+        <v>503</v>
+      </c>
+      <c r="C34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" t="s">
         <v>515</v>
       </c>
-      <c r="C34" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" t="s">
-        <v>527</v>
-      </c>
       <c r="E34" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -3138,16 +3141,16 @@
         <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E35" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -3158,16 +3161,16 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
+        <v>504</v>
+      </c>
+      <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" t="s">
         <v>516</v>
       </c>
-      <c r="C36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" t="s">
-        <v>528</v>
-      </c>
       <c r="E36" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -3178,16 +3181,16 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D37" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E37" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -3198,16 +3201,16 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
+        <v>505</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" t="s">
         <v>517</v>
       </c>
-      <c r="C38" t="s">
-        <v>229</v>
-      </c>
-      <c r="D38" t="s">
-        <v>529</v>
-      </c>
       <c r="E38" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -3218,16 +3221,16 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E39" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -3238,13 +3241,13 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -3255,13 +3258,13 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D41" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -3272,16 +3275,16 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D42" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E42" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -3292,16 +3295,16 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E43" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -3312,16 +3315,16 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E44" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3332,16 +3335,16 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D45" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E45" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -3352,16 +3355,16 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E46" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -3372,16 +3375,16 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="C47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D47" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E47" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -3392,16 +3395,16 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E48" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -3412,16 +3415,16 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D49" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E49" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -3432,13 +3435,13 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D50" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -3449,16 +3452,16 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D51" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E51" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -3469,16 +3472,16 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D52" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E52" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -3489,13 +3492,13 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D53" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -3506,16 +3509,16 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D54" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E54" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -3526,16 +3529,16 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E55" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3546,13 +3549,13 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D56" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -3563,16 +3566,16 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D57" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E57" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -3583,16 +3586,16 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D58" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E58" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -3603,13 +3606,13 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D59" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -3620,16 +3623,16 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D60" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E60" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -3640,16 +3643,16 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D61" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E61" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -3660,16 +3663,16 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D62" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E62" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -3680,13 +3683,13 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C63" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D63" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3697,16 +3700,16 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D64" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E64" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3717,16 +3720,16 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D65" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E65" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3737,13 +3740,13 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3754,16 +3757,16 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D67" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="E67" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -3774,16 +3777,16 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D68" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="E68" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -3794,13 +3797,13 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -3811,13 +3814,13 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D70" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -3828,10 +3831,10 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -3842,13 +3845,13 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D72" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -3859,13 +3862,13 @@
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D73" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3876,13 +3879,13 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C74" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D74" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -3893,10 +3896,10 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3907,13 +3910,13 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3924,10 +3927,10 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C77" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -3938,13 +3941,13 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3955,10 +3958,10 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C79" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -3969,16 +3972,16 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E80" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3989,16 +3992,16 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C81" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E81" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -4009,16 +4012,16 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D82" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E82" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -4029,13 +4032,13 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D83" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -4046,16 +4049,16 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D84" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E84" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -4066,13 +4069,13 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D85" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -4083,13 +4086,13 @@
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C86" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -4100,13 +4103,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C87" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D87" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -4117,13 +4120,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C88" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D88" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -4134,13 +4137,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D89" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -4154,10 +4157,10 @@
         <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -4168,13 +4171,13 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C91" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D91" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
@@ -4185,13 +4188,13 @@
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -4202,16 +4205,16 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C93" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D93" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E93" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -4222,13 +4225,13 @@
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D94" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -4239,10 +4242,10 @@
         <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -4253,13 +4256,13 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C96" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D96" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -4270,10 +4273,10 @@
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C97" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
@@ -4284,13 +4287,13 @@
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C98" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D98" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -4301,10 +4304,10 @@
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C99" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
@@ -4315,13 +4318,13 @@
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C100" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -4332,10 +4335,10 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C101" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -4346,10 +4349,10 @@
         <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C102" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
@@ -4360,10 +4363,10 @@
         <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C103" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
@@ -4374,10 +4377,10 @@
         <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C104" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F104" t="b">
         <v>0</v>
@@ -4388,19 +4391,19 @@
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C105" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E105" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -4408,10 +4411,10 @@
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C106" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -4422,19 +4425,19 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E107" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4442,13 +4445,13 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C108" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D108" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -4459,16 +4462,16 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C109" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D109" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E109" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
@@ -4479,16 +4482,16 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C110" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D110" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E110" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -4499,13 +4502,13 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D111" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -4516,13 +4519,13 @@
         <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C112" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D112" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -4533,13 +4536,13 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C113" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D113" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -4550,13 +4553,13 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C114" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D114" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
@@ -4567,13 +4570,13 @@
         <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C115" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D115" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
@@ -4584,16 +4587,16 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E116" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
@@ -4604,13 +4607,13 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D117" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
@@ -4621,10 +4624,10 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
@@ -4635,13 +4638,13 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D119" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
@@ -4652,10 +4655,10 @@
         <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
@@ -4666,13 +4669,13 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C121" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D121" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
@@ -4683,13 +4686,13 @@
         <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C122" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D122" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
@@ -4700,13 +4703,13 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C123" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D123" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
@@ -4717,13 +4720,13 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C124" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D124" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
@@ -4734,13 +4737,13 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C125" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D125" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
@@ -4751,13 +4754,13 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C126" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
@@ -4768,13 +4771,13 @@
         <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C127" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D127" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
@@ -4785,10 +4788,10 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C128" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -4799,13 +4802,13 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C129" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D129" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
@@ -4816,13 +4819,13 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C130" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D130" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
@@ -4833,10 +4836,10 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C131" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
@@ -4847,13 +4850,13 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C132" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D132" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
@@ -4864,10 +4867,10 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
@@ -4879,10 +4882,10 @@
         <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C134" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
@@ -4894,10 +4897,10 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
+        <v>226</v>
+      </c>
+      <c r="C135" t="s">
         <v>228</v>
-      </c>
-      <c r="C135" t="s">
-        <v>230</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
@@ -4906,22 +4909,22 @@
     </row>
     <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B136" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="C136" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
@@ -4929,48 +4932,48 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B137" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="C137" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="K137" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L137" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B138" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="C138" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F138" t="b">
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="K138" s="5" t="s">
         <v>97</v>
       </c>
       <c r="L138" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -5033,16 +5036,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5050,13 +5053,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5064,13 +5067,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B4" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5078,13 +5081,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5092,16 +5095,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B6" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5109,13 +5112,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5123,16 +5126,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" t="s">
         <v>420</v>
-      </c>
-      <c r="B8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" t="s">
-        <v>432</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5140,13 +5143,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B9" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -5154,13 +5157,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5168,16 +5171,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B11" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5185,13 +5188,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5199,16 +5202,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5216,13 +5219,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B14" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -5230,16 +5233,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B15" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -5247,16 +5250,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B16" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5270,7 +5273,7 @@
         <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5284,7 +5287,7 @@
         <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -5337,13 +5340,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5358,7 +5361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5396,16 +5401,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5418,10 +5423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5436,9 +5441,11 @@
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5469,421 +5476,477 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>267</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>288</v>
       </c>
-      <c r="C2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" t="s">
-        <v>290</v>
-      </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C6" t="s">
         <v>229</v>
       </c>
-      <c r="D5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" t="s">
-        <v>231</v>
-      </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>495</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>598</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>495</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" t="s">
+        <v>519</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>274</v>
       </c>
-      <c r="B11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C11" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" t="s">
+        <v>519</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>275</v>
       </c>
-      <c r="B12" t="s">
-        <v>532</v>
-      </c>
-      <c r="C12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B14" t="s">
+        <v>522</v>
+      </c>
+      <c r="C14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" t="s">
+        <v>519</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" t="s">
+        <v>519</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" t="s">
+        <v>523</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" t="s">
+        <v>519</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" t="s">
+        <v>524</v>
+      </c>
+      <c r="C17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" t="s">
+        <v>519</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" t="s">
+        <v>525</v>
+      </c>
+      <c r="C18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" t="s">
+        <v>519</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" t="s">
+        <v>519</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" t="s">
+        <v>528</v>
+      </c>
+      <c r="C20" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" t="s">
+        <v>519</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" t="s">
+        <v>529</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" t="s">
+        <v>519</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" t="s">
+        <v>519</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" t="s">
+        <v>519</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" t="s">
         <v>531</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>276</v>
-      </c>
-      <c r="B13" t="s">
-        <v>532</v>
-      </c>
-      <c r="C13" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" t="s">
-        <v>531</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" t="s">
-        <v>534</v>
-      </c>
-      <c r="C14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" t="s">
-        <v>531</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" t="s">
-        <v>531</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>279</v>
-      </c>
-      <c r="B16" t="s">
-        <v>535</v>
-      </c>
-      <c r="C16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" t="s">
-        <v>531</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>280</v>
-      </c>
-      <c r="B17" t="s">
-        <v>536</v>
-      </c>
-      <c r="C17" t="s">
-        <v>234</v>
-      </c>
-      <c r="E17" t="s">
-        <v>531</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>281</v>
-      </c>
-      <c r="B18" t="s">
-        <v>537</v>
-      </c>
-      <c r="C18" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" t="s">
-        <v>531</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>282</v>
-      </c>
-      <c r="B19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C19" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" t="s">
-        <v>531</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B20" t="s">
-        <v>540</v>
-      </c>
-      <c r="C20" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" t="s">
-        <v>531</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>284</v>
-      </c>
-      <c r="B21" t="s">
-        <v>541</v>
-      </c>
-      <c r="C21" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21" t="s">
-        <v>531</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>285</v>
-      </c>
-      <c r="B22" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" t="s">
-        <v>531</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>286</v>
-      </c>
-      <c r="B23" t="s">
-        <v>298</v>
-      </c>
-      <c r="C23" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" t="s">
-        <v>531</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>287</v>
-      </c>
-      <c r="B24" t="s">
-        <v>543</v>
-      </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>563</v>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>574</v>
+      </c>
+      <c r="B25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="L25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>583</v>
+      </c>
+      <c r="B26" t="s">
+        <v>583</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>584</v>
+      </c>
+      <c r="K26" t="s">
+        <v>268</v>
+      </c>
+      <c r="L26" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5891,8 +5954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5941,21 +6004,21 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5963,13 +6026,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5977,36 +6040,39 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>590</v>
+      </c>
+      <c r="E5" t="s">
+        <v>495</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -6014,13 +6080,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>591</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="E6" t="s">
+        <v>495</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6028,13 +6097,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>592</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="E7" t="s">
+        <v>495</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6042,16 +6114,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>590</v>
+      </c>
+      <c r="E8" t="s">
+        <v>495</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6059,13 +6134,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>229</v>
+      </c>
+      <c r="E9" t="s">
+        <v>495</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -6073,16 +6151,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -6090,33 +6168,39 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="E11" t="s">
+        <v>495</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>545</v>
+        <v>533</v>
+      </c>
+      <c r="E12" t="s">
+        <v>495</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -6130,16 +6214,16 @@
         <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6150,33 +6234,33 @@
         <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E14" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E15" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -6184,13 +6268,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="E16" t="s">
+        <v>495</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -6198,19 +6285,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E17" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -6218,13 +6305,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="E18" t="s">
+        <v>495</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -6235,16 +6325,16 @@
         <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E19" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -6255,16 +6345,16 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E20" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -6272,19 +6362,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E21" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -6292,19 +6382,19 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E22" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -6312,19 +6402,19 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B23" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E23" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -6332,19 +6422,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B24" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E24" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -6355,16 +6445,16 @@
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E25" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -6375,16 +6465,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E26" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -6392,19 +6482,19 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E27" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6412,19 +6502,19 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E28" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -6432,19 +6522,19 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D29" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E29" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -6452,13 +6542,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B30" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="E30" t="s">
+        <v>495</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -6466,305 +6559,341 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D31" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="E31" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>315</v>
+      </c>
+      <c r="B32" t="s">
+        <v>570</v>
+      </c>
+      <c r="C32" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" t="s">
+        <v>495</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>316</v>
+      </c>
+      <c r="B33" t="s">
+        <v>557</v>
+      </c>
+      <c r="C33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" t="s">
+        <v>533</v>
+      </c>
+      <c r="E33" t="s">
+        <v>495</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B34" t="s">
+        <v>564</v>
+      </c>
+      <c r="C34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" t="s">
+        <v>593</v>
+      </c>
+      <c r="E34" t="s">
+        <v>495</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" t="s">
+        <v>359</v>
+      </c>
+      <c r="C35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" t="s">
+        <v>589</v>
+      </c>
+      <c r="E35" t="s">
+        <v>495</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>319</v>
+      </c>
+      <c r="B36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" t="s">
+        <v>589</v>
+      </c>
+      <c r="E36" t="s">
+        <v>495</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>320</v>
+      </c>
+      <c r="B37" t="s">
+        <v>361</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" t="s">
+        <v>384</v>
+      </c>
+      <c r="E37" t="s">
+        <v>495</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>321</v>
       </c>
-      <c r="B32" t="s">
-        <v>582</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B38" t="s">
+        <v>562</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" t="s">
+        <v>589</v>
+      </c>
+      <c r="E38" t="s">
+        <v>495</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E39" t="s">
+        <v>495</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" t="s">
+        <v>533</v>
+      </c>
+      <c r="E40" t="s">
+        <v>495</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" t="s">
+        <v>558</v>
+      </c>
+      <c r="C41" t="s">
         <v>232</v>
       </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>322</v>
-      </c>
-      <c r="B33" t="s">
-        <v>569</v>
-      </c>
-      <c r="C33" t="s">
-        <v>229</v>
-      </c>
-      <c r="D33" t="s">
-        <v>545</v>
-      </c>
-      <c r="E33" t="s">
-        <v>507</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>323</v>
-      </c>
-      <c r="B34" t="s">
-        <v>576</v>
-      </c>
-      <c r="C34" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" t="s">
-        <v>393</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>324</v>
-      </c>
-      <c r="B35" t="s">
-        <v>367</v>
-      </c>
-      <c r="C35" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" t="s">
-        <v>392</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="E41" t="s">
+        <v>495</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>325</v>
       </c>
-      <c r="B36" t="s">
-        <v>368</v>
-      </c>
-      <c r="C36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" t="s">
-        <v>238</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B42" t="s">
+        <v>559</v>
+      </c>
+      <c r="C42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" t="s">
+        <v>594</v>
+      </c>
+      <c r="E42" t="s">
+        <v>495</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B37" t="s">
-        <v>369</v>
-      </c>
-      <c r="C37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D37" t="s">
-        <v>394</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B43" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="E43" t="s">
+        <v>495</v>
+      </c>
+      <c r="F43" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>327</v>
       </c>
-      <c r="B38" t="s">
-        <v>574</v>
-      </c>
-      <c r="C38" t="s">
-        <v>229</v>
-      </c>
-      <c r="D38" t="s">
-        <v>238</v>
-      </c>
-      <c r="E38" t="s">
-        <v>507</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B44" t="s">
+        <v>561</v>
+      </c>
+      <c r="C44" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" t="s">
+        <v>495</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>328</v>
       </c>
-      <c r="B39" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="E39" t="s">
-        <v>507</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B45" t="s">
+        <v>363</v>
+      </c>
+      <c r="C45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" t="s">
+        <v>495</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>329</v>
       </c>
-      <c r="B40" t="s">
-        <v>370</v>
-      </c>
-      <c r="C40" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" t="s">
-        <v>255</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B46" t="s">
+        <v>364</v>
+      </c>
+      <c r="C46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>330</v>
       </c>
-      <c r="B41" t="s">
-        <v>570</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B47" t="s">
+        <v>365</v>
+      </c>
+      <c r="C47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" t="s">
+        <v>366</v>
+      </c>
+      <c r="C48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" t="s">
         <v>234</v>
-      </c>
-      <c r="E41" t="s">
-        <v>507</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>331</v>
-      </c>
-      <c r="B42" t="s">
-        <v>571</v>
-      </c>
-      <c r="C42" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" t="s">
-        <v>395</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>332</v>
-      </c>
-      <c r="B43" t="s">
-        <v>572</v>
-      </c>
-      <c r="C43" t="s">
-        <v>229</v>
-      </c>
-      <c r="D43" t="s">
-        <v>254</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>333</v>
-      </c>
-      <c r="B44" t="s">
-        <v>573</v>
-      </c>
-      <c r="C44" t="s">
-        <v>232</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>334</v>
-      </c>
-      <c r="B45" t="s">
-        <v>371</v>
-      </c>
-      <c r="C45" t="s">
-        <v>232</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>335</v>
-      </c>
-      <c r="B46" t="s">
-        <v>372</v>
-      </c>
-      <c r="C46" t="s">
-        <v>232</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>336</v>
-      </c>
-      <c r="B47" t="s">
-        <v>373</v>
-      </c>
-      <c r="C47" t="s">
-        <v>232</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>337</v>
-      </c>
-      <c r="B48" t="s">
-        <v>374</v>
-      </c>
-      <c r="C48" t="s">
-        <v>229</v>
-      </c>
-      <c r="D48" t="s">
-        <v>236</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -6772,13 +6901,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C49" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -6786,16 +6915,19 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s">
-        <v>376</v>
+        <v>597</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D50" t="s">
-        <v>396</v>
+        <v>596</v>
+      </c>
+      <c r="E50" t="s">
+        <v>495</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -6803,16 +6935,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D51" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -6820,13 +6952,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B52" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="E52" t="s">
+        <v>371</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -6834,30 +6969,30 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B53" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B54" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -6865,33 +7000,33 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B55" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B56" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D56" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -6899,13 +7034,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B57" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C57" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="E57" t="s">
+        <v>373</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -6913,13 +7051,16 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B58" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="E58" t="s">
+        <v>373</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -6927,33 +7068,33 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B59" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B60" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D60" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -6961,16 +7102,16 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B61" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D61" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -6978,13 +7119,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B62" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -6992,16 +7133,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B63" t="s">
+        <v>381</v>
+      </c>
+      <c r="C63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" t="s">
         <v>389</v>
-      </c>
-      <c r="C63" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" t="s">
-        <v>401</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -7009,13 +7150,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B64" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C64" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -7026,16 +7167,16 @@
         <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D65" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E65" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -7043,13 +7184,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B66" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C66" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -7060,10 +7201,10 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -7128,13 +7269,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7142,16 +7283,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7159,13 +7300,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -7173,30 +7314,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -7204,33 +7345,33 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -7238,16 +7379,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7255,16 +7396,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7272,16 +7413,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7348,16 +7489,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7365,13 +7506,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7379,13 +7520,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -7393,13 +7534,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -7407,39 +7548,39 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7447,39 +7588,39 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E9" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7487,16 +7628,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7504,16 +7645,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7570,13 +7711,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7584,16 +7725,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B3" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7601,13 +7742,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -7615,13 +7756,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -7629,16 +7770,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -7646,16 +7787,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7663,16 +7804,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B8" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -7680,16 +7821,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7697,16 +7838,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7714,16 +7855,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7790,16 +7931,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7807,13 +7948,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7821,16 +7962,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -7838,16 +7979,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -7855,13 +7996,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -7869,13 +8010,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -7883,13 +8024,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -7897,13 +8038,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7911,16 +8052,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7928,33 +8069,33 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B11" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B12" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -7962,16 +8103,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B13" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7979,33 +8120,33 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B14" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E14" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B15" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -8013,16 +8154,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B16" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E16" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -8030,33 +8171,33 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B17" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E17" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B18" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -8064,16 +8205,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B19" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -8081,39 +8222,39 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B20" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E20" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B21" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="E21" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -8121,16 +8262,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B22" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -8138,13 +8279,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B23" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -8152,13 +8293,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B24" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -8211,16 +8352,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -8228,13 +8369,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -8242,13 +8383,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-fl/resources/outputs/templates/ccfgs_fl_data_fixed.xlsx
+++ b/examples/oucru/oucru-fl/resources/outputs/templates/ccfgs_fl_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-fl\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6384AE-9C8C-4FD4-9CCA-4D17863CE318}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FD33C5-AC2B-4ED8-BC5A-D59FF0195842}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27285" yWindow="885" windowWidth="25470" windowHeight="14850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="23730" windowHeight="16470" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FL_CLINICAL_SUM" sheetId="1" r:id="rId1"/>
@@ -1326,15 +1326,9 @@
     <t>rales_right</t>
   </si>
   <si>
-    <t>respiratory_desc</t>
-  </si>
-  <si>
     <t>painful</t>
   </si>
   <si>
-    <t>cnsother</t>
-  </si>
-  <si>
     <t>enrol_diagnosis</t>
   </si>
   <si>
@@ -1393,9 +1387,6 @@
   </si>
   <si>
     <t>clinical diagnosis</t>
-  </si>
-  <si>
-    <t>{'AM RAI RAC': 'V_1', 'RAN AM': 'V_2'}</t>
   </si>
   <si>
     <t>{3: 'V_0', 2: 'V_2', 1: 'V_3'}</t>
@@ -1966,9 +1957,6 @@
     <t>heart_sound_abnormal</t>
   </si>
   <si>
-    <t>heart_sound_abnormal_desc</t>
-  </si>
-  <si>
     <t>{1: False, 2: True}</t>
   </si>
   <si>
@@ -2030,12 +2018,6 @@
     <t>{1: 1, 2: 2}</t>
   </si>
   <si>
-    <t>blood_pressure_up</t>
-  </si>
-  <si>
-    <t>blood_pressure_down</t>
-  </si>
-  <si>
     <t>{3: 3, 2: 2}</t>
   </si>
   <si>
@@ -2055,6 +2037,24 @@
   </si>
   <si>
     <t>-DOI on enrolment</t>
+  </si>
+  <si>
+    <t>dbp</t>
+  </si>
+  <si>
+    <t>sbp</t>
+  </si>
+  <si>
+    <t>cns_abnormal_description_other</t>
+  </si>
+  <si>
+    <t>heart_sound_abnormal_description</t>
+  </si>
+  <si>
+    <t>respiratory_distress_description</t>
+  </si>
+  <si>
+    <t>{'AM RAI RAC': 'AM RAI RAC', 'RAN AM': 'RAN AM'}</t>
   </si>
 </sst>
 </file>
@@ -2545,10 +2545,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2593,13 +2593,13 @@
         <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2607,16 +2607,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C5" t="s">
         <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2653,13 +2653,13 @@
         <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2681,7 +2681,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C9" t="s">
         <v>231</v>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C10" t="s">
         <v>228</v>
@@ -2712,13 +2712,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C11" t="s">
         <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C21" t="s">
         <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E21" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2890,16 +2890,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C22" t="s">
         <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E22" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2910,13 +2910,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C23" t="s">
         <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C24" t="s">
         <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E24" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C25" t="s">
         <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E25" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2967,13 +2967,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C26" t="s">
         <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -2984,16 +2984,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C27" t="s">
         <v>227</v>
       </c>
       <c r="D27" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E27" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C28" t="s">
         <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E28" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -3024,13 +3024,13 @@
         <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C29" t="s">
         <v>227</v>
       </c>
       <c r="D29" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -3041,16 +3041,16 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C30" t="s">
         <v>227</v>
       </c>
       <c r="D30" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E30" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -3067,10 +3067,10 @@
         <v>227</v>
       </c>
       <c r="D31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E31" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -3081,16 +3081,16 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C32" t="s">
         <v>227</v>
       </c>
       <c r="D32" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E32" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         <v>227</v>
       </c>
       <c r="D33" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E33" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -3121,16 +3121,16 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C34" t="s">
         <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E34" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -3141,16 +3141,16 @@
         <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C35" t="s">
         <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E35" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C36" t="s">
         <v>227</v>
       </c>
       <c r="D36" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E36" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -3181,16 +3181,16 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C37" t="s">
         <v>227</v>
       </c>
       <c r="D37" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E37" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -3201,16 +3201,16 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C38" t="s">
         <v>227</v>
       </c>
       <c r="D38" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E38" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -3221,16 +3221,16 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C39" t="s">
         <v>227</v>
       </c>
       <c r="D39" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E39" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>227</v>
       </c>
       <c r="D41" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C42" t="s">
         <v>227</v>
       </c>
       <c r="D42" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E42" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -3301,10 +3301,10 @@
         <v>227</v>
       </c>
       <c r="D43" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E43" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -3321,10 +3321,10 @@
         <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E44" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3335,16 +3335,16 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C45" t="s">
         <v>227</v>
       </c>
       <c r="D45" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E45" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -3361,10 +3361,10 @@
         <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E46" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -3375,16 +3375,16 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C47" t="s">
         <v>227</v>
       </c>
       <c r="D47" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E47" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C48" t="s">
         <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E48" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -3415,16 +3415,16 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C49" t="s">
         <v>227</v>
       </c>
       <c r="D49" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E49" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C50" t="s">
         <v>227</v>
       </c>
       <c r="D50" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -3452,16 +3452,16 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C51" t="s">
         <v>227</v>
       </c>
       <c r="D51" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E51" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C52" t="s">
         <v>227</v>
       </c>
       <c r="D52" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E52" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -3492,13 +3492,13 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C53" t="s">
         <v>227</v>
       </c>
       <c r="D53" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>227</v>
       </c>
       <c r="D54" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E54" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -3535,10 +3535,10 @@
         <v>227</v>
       </c>
       <c r="D55" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E55" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>227</v>
       </c>
       <c r="D56" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -3572,10 +3572,10 @@
         <v>227</v>
       </c>
       <c r="D57" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E57" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -3592,10 +3592,10 @@
         <v>227</v>
       </c>
       <c r="D58" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E58" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>227</v>
       </c>
       <c r="D59" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -3623,16 +3623,16 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C60" t="s">
         <v>227</v>
       </c>
       <c r="D60" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E60" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -3649,10 +3649,10 @@
         <v>227</v>
       </c>
       <c r="D61" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E61" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>227</v>
       </c>
       <c r="D62" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E62" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>227</v>
       </c>
       <c r="D63" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3700,16 +3700,16 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C64" t="s">
         <v>227</v>
       </c>
       <c r="D64" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E64" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C65" t="s">
         <v>227</v>
       </c>
       <c r="D65" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E65" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C66" t="s">
         <v>227</v>
@@ -3757,16 +3757,16 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C67" t="s">
         <v>227</v>
       </c>
       <c r="D67" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E67" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -3777,16 +3777,16 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C68" t="s">
         <v>227</v>
       </c>
       <c r="D68" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E68" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C78" t="s">
         <v>227</v>
@@ -3972,16 +3972,16 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C80" t="s">
         <v>227</v>
       </c>
       <c r="D80" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E80" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3998,10 +3998,10 @@
         <v>227</v>
       </c>
       <c r="D81" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E81" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -4018,10 +4018,10 @@
         <v>227</v>
       </c>
       <c r="D82" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E82" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -4055,10 +4055,10 @@
         <v>227</v>
       </c>
       <c r="D84" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E84" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>227</v>
       </c>
       <c r="D89" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -4205,16 +4205,16 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C93" t="s">
         <v>227</v>
       </c>
       <c r="D93" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E93" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -4391,19 +4391,19 @@
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C105" t="s">
         <v>228</v>
       </c>
       <c r="E105" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -4425,19 +4425,19 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C107" t="s">
         <v>228</v>
       </c>
       <c r="E107" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4462,16 +4462,16 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C109" t="s">
         <v>227</v>
       </c>
       <c r="D109" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E109" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
@@ -4488,10 +4488,10 @@
         <v>227</v>
       </c>
       <c r="D110" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E110" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -4525,7 +4525,7 @@
         <v>227</v>
       </c>
       <c r="D112" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -4593,10 +4593,10 @@
         <v>227</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E116" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B136" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C136" t="s">
         <v>231</v>
@@ -4921,10 +4921,10 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
@@ -4932,10 +4932,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B137" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C137" t="s">
         <v>231</v>
@@ -4944,21 +4944,21 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K137" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L137" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B138" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C138" t="s">
         <v>231</v>
@@ -4967,13 +4967,13 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K138" s="5" t="s">
         <v>97</v>
       </c>
       <c r="L138" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -5036,16 +5036,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C2" t="s">
         <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5067,10 +5067,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C4" t="s">
         <v>228</v>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C5" t="s">
         <v>232</v>
@@ -5095,16 +5095,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C6" t="s">
         <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5112,10 +5112,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C7" t="s">
         <v>232</v>
@@ -5126,16 +5126,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C8" t="s">
         <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5143,10 +5143,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C9" t="s">
         <v>229</v>
@@ -5157,10 +5157,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C10" t="s">
         <v>230</v>
@@ -5171,16 +5171,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C11" t="s">
         <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5188,10 +5188,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C12" t="s">
         <v>229</v>
@@ -5202,10 +5202,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C13" t="s">
         <v>227</v>
@@ -5219,10 +5219,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C14" t="s">
         <v>228</v>
@@ -5233,10 +5233,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B15" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C15" t="s">
         <v>227</v>
@@ -5250,10 +5250,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B16" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C16" t="s">
         <v>227</v>
@@ -5340,10 +5340,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
         <v>230</v>
@@ -5425,8 +5425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5477,10 +5477,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5525,7 +5525,7 @@
         <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5542,7 +5542,7 @@
         <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C6" t="s">
         <v>229</v>
@@ -5573,7 +5573,7 @@
         <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C8" t="s">
         <v>231</v>
@@ -5593,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5601,13 +5601,13 @@
         <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C9" t="s">
         <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>271</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C10" t="s">
         <v>231</v>
@@ -5627,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5635,13 +5635,13 @@
         <v>272</v>
       </c>
       <c r="B11" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C11" t="s">
         <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5652,19 +5652,19 @@
         <v>273</v>
       </c>
       <c r="B12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C12" t="s">
         <v>232</v>
       </c>
       <c r="E12" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5672,19 +5672,19 @@
         <v>274</v>
       </c>
       <c r="B13" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C13" t="s">
         <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5692,19 +5692,19 @@
         <v>275</v>
       </c>
       <c r="B14" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C14" t="s">
         <v>232</v>
       </c>
       <c r="E14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5718,13 +5718,13 @@
         <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5732,19 +5732,19 @@
         <v>277</v>
       </c>
       <c r="B16" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C16" t="s">
         <v>232</v>
       </c>
       <c r="E16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -5752,19 +5752,19 @@
         <v>278</v>
       </c>
       <c r="B17" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C17" t="s">
         <v>232</v>
       </c>
       <c r="E17" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -5772,19 +5772,19 @@
         <v>279</v>
       </c>
       <c r="B18" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C18" t="s">
         <v>232</v>
       </c>
       <c r="E18" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -5798,13 +5798,13 @@
         <v>232</v>
       </c>
       <c r="E19" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -5812,13 +5812,13 @@
         <v>281</v>
       </c>
       <c r="B20" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C20" t="s">
         <v>232</v>
       </c>
       <c r="E20" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -5829,13 +5829,13 @@
         <v>282</v>
       </c>
       <c r="B21" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C21" t="s">
         <v>232</v>
       </c>
       <c r="E21" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -5852,13 +5852,13 @@
         <v>232</v>
       </c>
       <c r="E22" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -5872,13 +5872,13 @@
         <v>232</v>
       </c>
       <c r="E23" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -5886,27 +5886,27 @@
         <v>285</v>
       </c>
       <c r="B24" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C24" t="s">
         <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B25" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C25" t="s">
         <v>231</v>
@@ -5915,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="L25" t="s">
         <v>269</v>
@@ -5923,10 +5923,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B26" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C26" t="s">
         <v>231</v>
@@ -5935,13 +5935,13 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K26" t="s">
         <v>268</v>
       </c>
       <c r="L26" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -5954,8 +5954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6004,7 +6004,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6049,13 +6049,13 @@
         <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6069,10 +6069,10 @@
         <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -6083,13 +6083,13 @@
         <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C6" t="s">
         <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6100,13 +6100,13 @@
         <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C7" t="s">
         <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -6123,10 +6123,10 @@
         <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>229</v>
       </c>
       <c r="E9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -6154,13 +6154,13 @@
         <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C10" t="s">
         <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -6177,13 +6177,13 @@
         <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6197,10 +6197,10 @@
         <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -6217,13 +6217,13 @@
         <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6237,13 +6237,13 @@
         <v>228</v>
       </c>
       <c r="E14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6251,16 +6251,16 @@
         <v>302</v>
       </c>
       <c r="B15" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C15" t="s">
         <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E15" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -6271,13 +6271,13 @@
         <v>303</v>
       </c>
       <c r="B16" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C16" t="s">
         <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -6288,16 +6288,16 @@
         <v>304</v>
       </c>
       <c r="B17" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C17" t="s">
         <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E17" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -6308,13 +6308,13 @@
         <v>305</v>
       </c>
       <c r="B18" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C18" t="s">
         <v>230</v>
       </c>
       <c r="E18" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -6331,10 +6331,10 @@
         <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E19" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -6351,10 +6351,10 @@
         <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E20" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -6365,16 +6365,16 @@
         <v>306</v>
       </c>
       <c r="B21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C21" t="s">
         <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E21" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -6385,16 +6385,16 @@
         <v>307</v>
       </c>
       <c r="B22" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C22" t="s">
         <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E22" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E23" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -6431,10 +6431,10 @@
         <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E24" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -6451,10 +6451,10 @@
         <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E25" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -6471,10 +6471,10 @@
         <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E26" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -6485,16 +6485,16 @@
         <v>310</v>
       </c>
       <c r="B27" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C27" t="s">
         <v>227</v>
       </c>
       <c r="D27" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E27" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6511,10 +6511,10 @@
         <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E28" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -6525,16 +6525,16 @@
         <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C29" t="s">
         <v>227</v>
       </c>
       <c r="D29" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E29" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -6551,7 +6551,7 @@
         <v>230</v>
       </c>
       <c r="E30" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -6562,22 +6562,22 @@
         <v>314</v>
       </c>
       <c r="B31" t="s">
+        <v>566</v>
+      </c>
+      <c r="C31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" t="s">
+        <v>567</v>
+      </c>
+      <c r="E31" t="s">
+        <v>492</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
         <v>569</v>
-      </c>
-      <c r="C31" t="s">
-        <v>227</v>
-      </c>
-      <c r="D31" t="s">
-        <v>571</v>
-      </c>
-      <c r="E31" t="s">
-        <v>495</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -6585,13 +6585,13 @@
         <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="C32" t="s">
         <v>230</v>
       </c>
       <c r="E32" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -6602,16 +6602,16 @@
         <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C33" t="s">
         <v>227</v>
       </c>
       <c r="D33" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E33" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -6622,16 +6622,16 @@
         <v>317</v>
       </c>
       <c r="B34" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C34" t="s">
         <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E34" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -6648,10 +6648,10 @@
         <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E35" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -6668,10 +6668,10 @@
         <v>227</v>
       </c>
       <c r="D36" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E36" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -6682,16 +6682,16 @@
         <v>320</v>
       </c>
       <c r="B37" t="s">
-        <v>361</v>
+        <v>598</v>
       </c>
       <c r="C37" t="s">
         <v>227</v>
       </c>
       <c r="D37" t="s">
-        <v>384</v>
+        <v>599</v>
       </c>
       <c r="E37" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -6702,16 +6702,16 @@
         <v>321</v>
       </c>
       <c r="B38" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C38" t="s">
         <v>227</v>
       </c>
       <c r="D38" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E38" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -6728,10 +6728,10 @@
         <v>227</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E39" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -6742,16 +6742,16 @@
         <v>323</v>
       </c>
       <c r="B40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C40" t="s">
         <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E40" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -6762,13 +6762,13 @@
         <v>324</v>
       </c>
       <c r="B41" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C41" t="s">
         <v>232</v>
       </c>
       <c r="E41" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -6779,22 +6779,22 @@
         <v>325</v>
       </c>
       <c r="B42" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C42" t="s">
         <v>227</v>
       </c>
       <c r="D42" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E42" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6802,22 +6802,22 @@
         <v>326</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>227</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E43" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F43" s="7" t="b">
         <v>0</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -6825,13 +6825,13 @@
         <v>327</v>
       </c>
       <c r="B44" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C44" t="s">
         <v>230</v>
       </c>
       <c r="E44" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         <v>328</v>
       </c>
       <c r="B45" t="s">
-        <v>363</v>
+        <v>596</v>
       </c>
       <c r="C45" t="s">
         <v>230</v>
       </c>
       <c r="E45" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -6859,7 +6859,7 @@
         <v>329</v>
       </c>
       <c r="B46" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C46" t="s">
         <v>230</v>
@@ -6873,7 +6873,7 @@
         <v>330</v>
       </c>
       <c r="B47" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C47" t="s">
         <v>230</v>
@@ -6887,7 +6887,7 @@
         <v>331</v>
       </c>
       <c r="B48" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C48" t="s">
         <v>227</v>
@@ -6904,7 +6904,7 @@
         <v>332</v>
       </c>
       <c r="B49" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C49" t="s">
         <v>230</v>
@@ -6918,16 +6918,16 @@
         <v>333</v>
       </c>
       <c r="B50" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C50" t="s">
         <v>227</v>
       </c>
       <c r="D50" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E50" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -6938,13 +6938,13 @@
         <v>334</v>
       </c>
       <c r="B51" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C51" t="s">
         <v>227</v>
       </c>
       <c r="D51" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -6955,13 +6955,13 @@
         <v>335</v>
       </c>
       <c r="B52" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C52" t="s">
         <v>228</v>
       </c>
       <c r="E52" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -6972,7 +6972,7 @@
         <v>336</v>
       </c>
       <c r="B53" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C53" t="s">
         <v>231</v>
@@ -6981,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -6989,7 +6989,7 @@
         <v>337</v>
       </c>
       <c r="B54" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C54" t="s">
         <v>228</v>
@@ -7003,7 +7003,7 @@
         <v>338</v>
       </c>
       <c r="B55" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C55" t="s">
         <v>231</v>
@@ -7012,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -7020,13 +7020,13 @@
         <v>339</v>
       </c>
       <c r="B56" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C56" t="s">
         <v>227</v>
       </c>
       <c r="D56" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -7037,13 +7037,13 @@
         <v>340</v>
       </c>
       <c r="B57" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C57" t="s">
         <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -7054,13 +7054,13 @@
         <v>341</v>
       </c>
       <c r="B58" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C58" t="s">
         <v>230</v>
       </c>
       <c r="E58" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>342</v>
       </c>
       <c r="B59" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C59" t="s">
         <v>231</v>
@@ -7080,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -7088,13 +7088,13 @@
         <v>343</v>
       </c>
       <c r="B60" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C60" t="s">
         <v>227</v>
       </c>
       <c r="D60" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -7105,13 +7105,13 @@
         <v>344</v>
       </c>
       <c r="B61" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C61" t="s">
         <v>227</v>
       </c>
       <c r="D61" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -7122,7 +7122,7 @@
         <v>345</v>
       </c>
       <c r="B62" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C62" t="s">
         <v>231</v>
@@ -7136,13 +7136,13 @@
         <v>346</v>
       </c>
       <c r="B63" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C63" t="s">
         <v>227</v>
       </c>
       <c r="D63" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -7153,7 +7153,7 @@
         <v>347</v>
       </c>
       <c r="B64" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C64" t="s">
         <v>231</v>
@@ -7173,10 +7173,10 @@
         <v>227</v>
       </c>
       <c r="D65" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E65" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -7187,7 +7187,7 @@
         <v>348</v>
       </c>
       <c r="B66" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C66" t="s">
         <v>230</v>
@@ -7201,7 +7201,7 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C67" t="s">
         <v>231</v>
@@ -7269,10 +7269,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C2" t="s">
         <v>230</v>
@@ -7283,10 +7283,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
         <v>227</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
         <v>287</v>
@@ -7314,10 +7314,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C5" t="s">
         <v>231</v>
@@ -7326,15 +7326,15 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
         <v>228</v>
@@ -7345,10 +7345,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C7" t="s">
         <v>231</v>
@@ -7357,21 +7357,21 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
         <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -7379,16 +7379,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C9" t="s">
         <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7396,16 +7396,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
         <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7413,16 +7413,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C11" t="s">
         <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7520,10 +7520,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C4" t="s">
         <v>231</v>
@@ -7534,10 +7534,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C5" t="s">
         <v>230</v>
@@ -7548,39 +7548,39 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C6" t="s">
         <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C7" t="s">
         <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7588,39 +7588,39 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C8" t="s">
         <v>232</v>
       </c>
       <c r="E8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
+        <v>541</v>
+      </c>
+      <c r="E9" t="s">
         <v>408</v>
-      </c>
-      <c r="B9" t="s">
-        <v>543</v>
-      </c>
-      <c r="C9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" t="s">
-        <v>544</v>
-      </c>
-      <c r="E9" t="s">
-        <v>411</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7628,16 +7628,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C10" t="s">
         <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7645,10 +7645,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
         <v>227</v>
@@ -7711,10 +7711,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
         <v>230</v>
@@ -7725,10 +7725,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
         <v>227</v>
@@ -7742,10 +7742,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C4" t="s">
         <v>228</v>
@@ -7756,10 +7756,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C5" t="s">
         <v>231</v>
@@ -7770,16 +7770,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C6" t="s">
         <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -7787,16 +7787,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C7" t="s">
         <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7804,16 +7804,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
         <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -7821,16 +7821,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
         <v>435</v>
-      </c>
-      <c r="C9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" t="s">
-        <v>438</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -7838,16 +7838,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C10" t="s">
         <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7855,16 +7855,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C11" t="s">
         <v>227</v>
       </c>
       <c r="D11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -7931,16 +7931,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C2" t="s">
         <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7948,10 +7948,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C3" t="s">
         <v>230</v>
@@ -7962,16 +7962,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C4" t="s">
         <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -7979,10 +7979,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C5" t="s">
         <v>227</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B6" t="s">
         <v>287</v>
@@ -8010,10 +8010,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C7" t="s">
         <v>231</v>
@@ -8024,10 +8024,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C8" t="s">
         <v>230</v>
@@ -8038,10 +8038,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C9" t="s">
         <v>232</v>
@@ -8052,16 +8052,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C10" t="s">
         <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -8069,30 +8069,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C11" t="s">
         <v>232</v>
       </c>
       <c r="E11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C12" t="s">
         <v>232</v>
@@ -8103,16 +8103,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B13" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C13" t="s">
         <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -8120,30 +8120,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B14" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C14" t="s">
         <v>232</v>
       </c>
       <c r="E14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B15" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C15" t="s">
         <v>232</v>
@@ -8154,16 +8154,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B16" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C16" t="s">
         <v>232</v>
       </c>
       <c r="E16" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -8171,30 +8171,30 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B17" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C17" t="s">
         <v>232</v>
       </c>
       <c r="E17" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C18" t="s">
         <v>227</v>
@@ -8205,16 +8205,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B19" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C19" t="s">
         <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -8222,39 +8222,39 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B20" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C20" t="s">
         <v>227</v>
       </c>
       <c r="E20" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B21" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C21" t="s">
         <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E21" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -8262,16 +8262,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B22" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C22" t="s">
         <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -8279,10 +8279,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B23" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C23" t="s">
         <v>231</v>
@@ -8293,10 +8293,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C24" t="s">
         <v>228</v>
@@ -8352,16 +8352,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C2" t="s">
         <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -8369,10 +8369,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C3" t="s">
         <v>230</v>
